--- a/forms/app/covid_rdt_followup.xlsx
+++ b/forms/app/covid_rdt_followup.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\cht-lgh\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -580,6 +580,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -850,33 +853,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="41.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="68.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="24.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
     <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
     <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1026" width="8.33203125" customWidth="1"/>
+    <col min="1019" max="1026" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -940,7 +943,7 @@
       </c>
       <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -974,7 +977,7 @@
       </c>
       <c r="AMK2"/>
     </row>
-    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -997,7 +1000,7 @@
       <c r="P3" s="8"/>
       <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1030,7 @@
       <c r="S4" s="9"/>
       <c r="AMK4"/>
     </row>
-    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1057,7 @@
       <c r="P5" s="6"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1081,7 @@
       <c r="S6" s="14"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1108,7 @@
       <c r="P7" s="6"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1157,7 @@
       <c r="S9" s="9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="S10" s="9"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1217,7 @@
       <c r="S11" s="9"/>
       <c r="AMK11"/>
     </row>
-    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -1242,7 +1245,7 @@
       <c r="S12" s="9"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1266,7 @@
       <c r="P13" s="6"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1287,7 @@
       <c r="P14" s="6"/>
       <c r="AMK14"/>
     </row>
-    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1325,7 @@
       </c>
       <c r="AMK15"/>
     </row>
-    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1368,7 @@
       <c r="AB16" s="22"/>
       <c r="AMK16"/>
     </row>
-    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>53</v>
       </c>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="AMK17"/>
     </row>
-    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>33</v>
       </c>
@@ -1420,17 +1423,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="103.625" style="27" customWidth="1"/>
     <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1023" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>59</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>60</v>
       </c>
@@ -1472,13 +1475,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
     </row>
   </sheetData>
@@ -1491,22 +1494,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="27" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>64</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>70</v>
       </c>
@@ -1535,7 +1538,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-03-27 17-58</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>72</v>
